--- a/resource/测试数据.xlsx
+++ b/resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="13860" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="156">
   <si>
     <t>地址</t>
   </si>
@@ -45,40 +45,460 @@
     </r>
   </si>
   <si>
-    <t>0x70B36641d9618c80E31F6404ee144497ec56c006</t>
+    <t>0x7605FB94519e155681D518D1b489b4b4d2973Dd7</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>9c7e4790ee804e509e6b5dd9deb20bd1</t>
+    <t>0624f5704c6740eb9ebfaa15844f6a96</t>
   </si>
   <si>
     <t>SHIfeng0615</t>
   </si>
   <si>
-    <t>0x77F03470806a37f6d72D00Da1061ACD339052a1D</t>
-  </si>
-  <si>
-    <t>b00bd7f62270402b9cbda9f019b22344</t>
-  </si>
-  <si>
-    <t>0x862dcA1311c604F5e47C2717b14c4F9508439958</t>
-  </si>
-  <si>
-    <t>053e2200b8d54011a8ba26e784eef205</t>
-  </si>
-  <si>
-    <t>0x28fCc7809094bb19FAAb713c549D1eE9Ca3E7aF6</t>
-  </si>
-  <si>
-    <t>ec22a09fec23478691109ee2805ec593</t>
-  </si>
-  <si>
-    <t>0x5528669c95e332a65233b18a3E7352d04b8B8A73</t>
-  </si>
-  <si>
-    <t>d7e960531a74473f8f3c9c8251925734</t>
+    <t>0xEfddf6e2d8FD710AeFb09aAA8B63C69cA578C55A</t>
+  </si>
+  <si>
+    <t>9eb65dc928b24ef0b0ff3960611efc48</t>
+  </si>
+  <si>
+    <t>0x00575f47aa12390Ef63E354Ad3F76b76e464fbc1</t>
+  </si>
+  <si>
+    <t>03be450b5cc94c6c8656fff7f5d22843</t>
+  </si>
+  <si>
+    <t>0xA46e852858B4F1877059399D54073a124dd975c1</t>
+  </si>
+  <si>
+    <t>b919e5a84ae444f7ae6cf364130aa9e5</t>
+  </si>
+  <si>
+    <t>0x3C83D60Aa48BF877801e9fCE4c6eD36Bd6Aca849</t>
+  </si>
+  <si>
+    <t>c8e9df2be99f47999aa84e3b8b5e6b75</t>
+  </si>
+  <si>
+    <t>0x6BeF8ad10Cefc6c172C7BaD79Ae891f2DDE8AC17</t>
+  </si>
+  <si>
+    <t>0e1698f8af324d1897649941e4f99c14</t>
+  </si>
+  <si>
+    <t>0x636741F2B687c803762470686a8f8F0BB14528dc</t>
+  </si>
+  <si>
+    <t>7c765845f6694be4a3ad5da5a81ceef3</t>
+  </si>
+  <si>
+    <t>0x91946fe5De6E366D753f99c6Ec4dDA3976654c65</t>
+  </si>
+  <si>
+    <t>bcdc73c99f2f4ecb8e371d02fdf08f69</t>
+  </si>
+  <si>
+    <t>0x2453CE77028bA9C8e8484597E3e75336158c424F</t>
+  </si>
+  <si>
+    <t>3904f5a64ea84aecbd32ce23f6dbca79</t>
+  </si>
+  <si>
+    <t>0xA8d6333dF9dCD9F447d5c0AFAC7ff48fB3d29715</t>
+  </si>
+  <si>
+    <t>e63452ec41124414b8f13263e04be15a</t>
+  </si>
+  <si>
+    <t>0xE59f01f0cE688FBd856df73e40AeAD802f63BBB2</t>
+  </si>
+  <si>
+    <t>d3c884d9cf7d4f8980a9673a3a8c9055</t>
+  </si>
+  <si>
+    <t>0xfCb608EfEA9394f03Cbdd0Fb32B53D07fce37742</t>
+  </si>
+  <si>
+    <t>c23f7d214d164ac09e1a48acf7a72ff4</t>
+  </si>
+  <si>
+    <t>0x98d597429F447D1E83B4893509899DFA554eBf0F</t>
+  </si>
+  <si>
+    <t>3e8ee2130d2147cd8390b868196375c7</t>
+  </si>
+  <si>
+    <t>0x218fa51Ee058486f5822C4E2e30DD48Ea035001c</t>
+  </si>
+  <si>
+    <t>39f2057f84044d10ae1802cb85d8a187</t>
+  </si>
+  <si>
+    <t>0xf430753F24e3903980A0A18b7D8831CdC69210Bd</t>
+  </si>
+  <si>
+    <t>7e48ce47bd1e45c798a4a521e6c26d6e</t>
+  </si>
+  <si>
+    <t>0x99E478A8CBf1AD5e387A2e1DE9f87b497Bec0daD</t>
+  </si>
+  <si>
+    <t>b35833efc0e742208ff7acf59cd63ed7</t>
+  </si>
+  <si>
+    <t>0x2cB019107108df4E6caCC8EAa3e36DEA862790A9</t>
+  </si>
+  <si>
+    <t>cbcf804a9769402dbd51555b585fc8fb</t>
+  </si>
+  <si>
+    <t>0xDb24Cd4A254f989da03435D58729B55e9c124223</t>
+  </si>
+  <si>
+    <t>5d2b34e120cf4d1e9448a88627099d42</t>
+  </si>
+  <si>
+    <t>0x5624BAd111236D2e89D9B7Cd9A0257C0b6b4c4a1</t>
+  </si>
+  <si>
+    <t>93f071fb1f8545888fbd822714a6a25a</t>
+  </si>
+  <si>
+    <t>0x06058Aa98cb8A6a2D480118082b4a45D6d955D8E</t>
+  </si>
+  <si>
+    <t>4b1e78ac1d624124a9306272ef7624f3</t>
+  </si>
+  <si>
+    <t>0xEDACa6D8F0ffc67Ef1FD2ea701b10a5B6960714a</t>
+  </si>
+  <si>
+    <t>16721ddc14e9417799dd232b6a22ce50</t>
+  </si>
+  <si>
+    <t>0x7ec653F9Cd93CE6Cd4112900b1207e71DEDaD340</t>
+  </si>
+  <si>
+    <t>ceaf7898bca44395bb3ca7823d84ffe8</t>
+  </si>
+  <si>
+    <t>0xb64C01ceE62FF9f486346FB3bD20A802A39B09e6</t>
+  </si>
+  <si>
+    <t>b5319f392db84679a032b1b62df1c6e9</t>
+  </si>
+  <si>
+    <t>0x79e89cF807D93eE02f51A6Ab2ED566FcDB2f5c7E</t>
+  </si>
+  <si>
+    <t>34e193f3b646445dbbee8fe5b77de41d</t>
+  </si>
+  <si>
+    <t>0x75B6FD0645ab435b7FF3af02Ab64e70467a7Da89</t>
+  </si>
+  <si>
+    <t>a5547c53289a4d91bd96ffa16fb169c8</t>
+  </si>
+  <si>
+    <t>0xBd9DA3A4CA755060F791314598EfEb9ae3A16B0e</t>
+  </si>
+  <si>
+    <t>3d9f3dbdf45541b29030d2e3361a2f55</t>
+  </si>
+  <si>
+    <t>0x0e82136bA2438F3D72d812ada0B522C70ADDE14E</t>
+  </si>
+  <si>
+    <t>0b447220370949df92ccdcd5186542a4</t>
+  </si>
+  <si>
+    <t>0x66f440519167bb2db978224983746140ab50636c</t>
+  </si>
+  <si>
+    <t>105f5c8212b84d80bfa82f3ddfd6088c</t>
+  </si>
+  <si>
+    <t>0x41D3270Ff017d61941c0ebbE39af38C25c50BcCF</t>
+  </si>
+  <si>
+    <t>12c14257cdec4566ae2872caac51ac21</t>
+  </si>
+  <si>
+    <t>0xefB76a2A21d98F9BeeaBb929993749345fBBa796</t>
+  </si>
+  <si>
+    <t>fb471d0e904c41b6a59c74f98c532fc4</t>
+  </si>
+  <si>
+    <t>0xcbC411d5184AD1B45e5F3AdB36096F4258077BF4</t>
+  </si>
+  <si>
+    <t>31b1b94c798549069440897ecba4c6cd</t>
+  </si>
+  <si>
+    <t>0x7CaB8908bdFe47E171Ffec4189ff2A3D81391d28</t>
+  </si>
+  <si>
+    <t>e3eae01b7f7845ac8d4a7e43a1947046</t>
+  </si>
+  <si>
+    <t>0xF576b1e45fa279E546988d9F4F7B3092F08703C1</t>
+  </si>
+  <si>
+    <t>a358fff14849439c836b86d3ba7086eb</t>
+  </si>
+  <si>
+    <t>0xDf32aee4523A7aebBe2CdB61ECc669fa54001291</t>
+  </si>
+  <si>
+    <t>316e7e6652ba45e29cbbacbdc9d471bf</t>
+  </si>
+  <si>
+    <t>0x09b3A136E97CA4D701280250Dac02336De400719</t>
+  </si>
+  <si>
+    <t>64afdb66bffb473585516c282ee7fbb4</t>
+  </si>
+  <si>
+    <t>0xdc0CB97974f20eB35C03f713F05D1AcC88ECC149</t>
+  </si>
+  <si>
+    <t>d07b538b346d4a75b9746f7b63f4b4f4</t>
+  </si>
+  <si>
+    <t>0x2cdDdE4e0121f50d1dFce75BD9f8de7dC968cc6f</t>
+  </si>
+  <si>
+    <t>4a2ead17d86f41238478613df81ea017</t>
+  </si>
+  <si>
+    <t>0xA8e8396F88967c18F73bC74Bd83774B2e585AC2c</t>
+  </si>
+  <si>
+    <t>fb68b5afad534fa58fd31ea53da2c133</t>
+  </si>
+  <si>
+    <t>0x25231621e437b6c20c42F678ad86d51978142a58</t>
+  </si>
+  <si>
+    <t>5aa24b719b164fc3b4a53defc5e5dbc4</t>
+  </si>
+  <si>
+    <t>0x13C73a465CDD4f8489EEbEd225f1a01be7c2cAe4</t>
+  </si>
+  <si>
+    <t>53ac371c7815466c9d6249059552bb2f</t>
+  </si>
+  <si>
+    <t>0xa3013042fC1B8E60D5452e884FC0CC919f64d32F</t>
+  </si>
+  <si>
+    <t>094160aebaa44eb5960e46f5f58149d9</t>
+  </si>
+  <si>
+    <t>0xba2b97e2293039A88BaDefCB55667953ad725673</t>
+  </si>
+  <si>
+    <t>646eb0b6e7954158b63a95e52712cc84</t>
+  </si>
+  <si>
+    <t>0x1E23b7391Ca456aa5cF5D362e85f00250d56Fd3e</t>
+  </si>
+  <si>
+    <t>34fa24af108349079305cfbf45b25c37</t>
+  </si>
+  <si>
+    <t>0x35Bce3Ce6890caBc7AE78aA5e1404840641b6F0c</t>
+  </si>
+  <si>
+    <t>6dc486abb27f47e897cebece2d7e0177</t>
+  </si>
+  <si>
+    <t>0xeDdBc5952aF11f821dCb534BD69f01E1446964a0</t>
+  </si>
+  <si>
+    <t>9527bf0cddce4e1099969457ff063b34</t>
+  </si>
+  <si>
+    <t>0x7C3548496e67b0375693d1452952B4fe626b1697</t>
+  </si>
+  <si>
+    <t>8469a8e66d424562a232c570c43518ef</t>
+  </si>
+  <si>
+    <t>0x894F5e18a5033CAf9Db1af1391d86d9E0cd10C93</t>
+  </si>
+  <si>
+    <t>ecef269262564ed6b187014a8277be4c</t>
+  </si>
+  <si>
+    <t>0xc7f5855379b0fFE35cE0c9e349D72194d2C0E8D5</t>
+  </si>
+  <si>
+    <t>b22535ad11684878b90b50b899157132</t>
+  </si>
+  <si>
+    <t>0x77d8388D813a816C743599824c1B05fe0CC1cb97</t>
+  </si>
+  <si>
+    <t>234fd70d56b24834a9bb8658495ea589</t>
+  </si>
+  <si>
+    <t>0x6F7Df966A3640180a490f8862136C78de3cD5a01</t>
+  </si>
+  <si>
+    <t>53dbc201647341f0a0c1882bd94aea51</t>
+  </si>
+  <si>
+    <t>0xE7A2B7594BD77dfcD0F1fb7c31f60cc4Dc847643</t>
+  </si>
+  <si>
+    <t>1353c6365d47465399bbe6b802497f8a</t>
+  </si>
+  <si>
+    <t>0x44412BcC221d34F46A574e3BB3a4996BF2307044</t>
+  </si>
+  <si>
+    <t>4a5a901e873e476a85db5552f76ccbdc</t>
+  </si>
+  <si>
+    <t>0x5CD0d95AcE737debC3580e395fa0a2a336C09A53</t>
+  </si>
+  <si>
+    <t>c4b23651c0c24473a42cceb98dc4c2ae</t>
+  </si>
+  <si>
+    <t>0x89E99fC8E8729C53a09ca241443F15Cc566712C0</t>
+  </si>
+  <si>
+    <t>5fe1d93e64624ad5b468e655c7a6fed6</t>
+  </si>
+  <si>
+    <t>0x6a708d07a3c104EF53E363DdF9e8995C7E0A3705</t>
+  </si>
+  <si>
+    <t>7bd1aefabfbe41a095d55e7060a92bb1</t>
+  </si>
+  <si>
+    <t>0xCFF86605BE50d808E67e8717C339804BC1Ae5C65</t>
+  </si>
+  <si>
+    <t>0a338d05f5314daba15111b0f8585600</t>
+  </si>
+  <si>
+    <t>0x7E7A7F3f581eBC36a0f47fEE0F4C44fb62F89433</t>
+  </si>
+  <si>
+    <t>665128af3f9f4fb9b706dde87f8ee064</t>
+  </si>
+  <si>
+    <t>0x4A0f2D5E001403c6BAfDeCc28A3FB437930Ea316</t>
+  </si>
+  <si>
+    <t>debe4002e8184a2d8386dcece1bc3078</t>
+  </si>
+  <si>
+    <t>0x7C1caDDd9c467E843aBBa2c3d14684a7c4B0324F</t>
+  </si>
+  <si>
+    <t>6274d70119194cc1b81b94aea10fd599</t>
+  </si>
+  <si>
+    <t>0x42AcAebC203fd2e01b7608391Ef8982407f09B96</t>
+  </si>
+  <si>
+    <t>9871f458809149dd90aa179c065a41b6</t>
+  </si>
+  <si>
+    <t>0x359C9635b490714BA70aD43ea1c2a763B09996d0</t>
+  </si>
+  <si>
+    <t>158684870bc842e1b99c81f60b10962d</t>
+  </si>
+  <si>
+    <t>0x2AFCCc0e402Ca30Ccb6e1867dE7D18D1c7B62De7</t>
+  </si>
+  <si>
+    <t>2096a14212c443b489ba0e116b9a68f8</t>
+  </si>
+  <si>
+    <t>0xDCCafD963238Cb0C9f8b0846FeE46236429C2B7D</t>
+  </si>
+  <si>
+    <t>68e446a8f71248ddbf0883f1d6cd343d</t>
+  </si>
+  <si>
+    <t>0x8DBb11c44990D92bc80d4Fa882f9E4A9F1aA267e</t>
+  </si>
+  <si>
+    <t>d2d11384d59b433ea490299f21f76e21</t>
+  </si>
+  <si>
+    <t>0x34f8B03499db1Eb4516bF16b5AB359F240BDf6D4</t>
+  </si>
+  <si>
+    <t>d058b92e6fd94c5e8f9e7134a07e891b</t>
+  </si>
+  <si>
+    <t>0x283F23d11032c2AF1997d60C3a5F35E02c4F8F7D</t>
+  </si>
+  <si>
+    <t>3836436a782448dfad266ccc28f7a746</t>
+  </si>
+  <si>
+    <t>0x79d6d262ca270Fe7E5D4b9881e58AB8F5b576c95</t>
+  </si>
+  <si>
+    <t>173e7592950348d9ba1b79280e31a20e</t>
+  </si>
+  <si>
+    <t>0x7A2571DfAd4249F633DfC0A90f96417b8f208A53</t>
+  </si>
+  <si>
+    <t>a6f95e3b34f541c5bf2165f773e31146</t>
+  </si>
+  <si>
+    <t>0xE796007ff801d579b026CcAe6472E83cC10c1c87</t>
+  </si>
+  <si>
+    <t>1a6cd9756e024997b88076ca0f7d7087</t>
+  </si>
+  <si>
+    <t>0x5f7857DA8163c3Fab87A113690DfCC57580F4295</t>
+  </si>
+  <si>
+    <t>d1a256e82f4047b5a5ece2eaf4c643a5</t>
+  </si>
+  <si>
+    <t>0x78588F53686FA1247B8be4Db9725fB99831d1Db9</t>
+  </si>
+  <si>
+    <t>729fd5c2850a44c996b23a64adcf7865</t>
+  </si>
+  <si>
+    <t>0x7EcC5f9D65301CD602B1d0e10B8bfe65fbc9431e</t>
+  </si>
+  <si>
+    <t>dcaf8301b6574417a7b527c07bdb76c7</t>
+  </si>
+  <si>
+    <t>0xa01069F61fDCB2Ca0Ff3d995Ce482F0BE7C52cf9</t>
+  </si>
+  <si>
+    <t>257582f67fd447419b2385ccef8b42da</t>
+  </si>
+  <si>
+    <t>0x818629B43e43daF752489996d572445577286ECb</t>
+  </si>
+  <si>
+    <t>8983f098d3e344ea9efdd2b19bda2aa7</t>
+  </si>
+  <si>
+    <t>0x66eB4789D10b844B86A2dd355f8598594B94B75b</t>
+  </si>
+  <si>
+    <t>3307ded3717042fab6bfd3125335ec83</t>
   </si>
 </sst>
 </file>
@@ -91,19 +511,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -570,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,33 +996,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,108 +1035,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,13 +1454,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="51.125" customWidth="1"/>
   </cols>
@@ -1059,80 +1472,1060 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
